--- a/数据整理/stocks/其他/HES-赫斯公司.xlsx
+++ b/数据整理/stocks/其他/HES-赫斯公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>378546</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根全球天然资源混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/HES-赫斯公司.xlsx
+++ b/数据整理/stocks/其他/HES-赫斯公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1258,4 +1259,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>096001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013404</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/HES-赫斯公司.xlsx
+++ b/数据整理/stocks/其他/HES-赫斯公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/HES-赫斯公司.xlsx
+++ b/数据整理/stocks/其他/HES-赫斯公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.48</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.72</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.38</v>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1718,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.5</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/HES-赫斯公司.xlsx
+++ b/数据整理/stocks/其他/HES-赫斯公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1761,7 +1762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1772,17 +1773,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1792,14 +1813,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1808,14 +1851,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.48</v>
       </c>
     </row>
     <row r="4">
@@ -1824,14 +1889,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.72</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5162</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1840,14 +1927,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.38</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5162</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1856,13 +1965,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.5</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/HES-赫斯公司.xlsx
+++ b/数据整理/stocks/其他/HES-赫斯公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2084,7 +2085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,17 +2096,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2115,14 +2136,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.47</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2131,14 +2174,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9528</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2147,14 +2212,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.48</v>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8763</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2163,14 +2250,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.72</v>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8763</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2179,14 +2288,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.38</v>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2195,13 +2326,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3112</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3112</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.5</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/HES-赫斯公司.xlsx
+++ b/数据整理/stocks/其他/HES-赫斯公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>4.6</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>3.47</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>3.38</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,32 +673,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9528</t>
+          <t>0.5032</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9528</t>
+          <t>0.5032</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162411</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)人民币A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.73</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8763</t>
+          <t>0.2540</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -770,149 +787,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001481</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)美元</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>41.73</t>
+          <t>-11.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8763</t>
+          <t>-0.5036</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007844</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.44</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3242</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3112</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3112</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -978,32 +881,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001481</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)美元</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.80</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9074</t>
+          <t>0.9528</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1016,32 +919,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162411</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)人民币A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.80</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9074</t>
+          <t>0.9528</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1054,36 +957,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162411</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>华宝油气(QDII)人民币A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>41.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5162</t>
+          <t>0.8763</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1092,36 +995,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>001481</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>华宝油气(QDII)美元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>41.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5162</t>
+          <t>0.8763</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1140,26 +1043,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.98</t>
+          <t>15.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2959</t>
+          <t>0.3242</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1168,36 +1071,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1656</t>
+          <t>0.3112</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1206,36 +1109,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1656</t>
+          <t>0.3112</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1244,6 +1147,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5162</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5162</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1451,7 +1676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1735,7 +1960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1981,7 +2206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2341,7 +2566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/HES-赫斯公司.xlsx
+++ b/数据整理/stocks/其他/HES-赫斯公司.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.76</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>4.6</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>3.47</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>3.38</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -616,7 +633,537 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0671</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气（QDII）人民币 C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4804</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4804</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝油气（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4726</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2357</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-11.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-0.4804</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -816,328 +1363,6 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9528</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9528</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162411</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>41.73</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8763</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001481</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>41.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8763</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007844</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.44</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3242</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3112</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3112</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1203,32 +1428,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001481</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)美元</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.80</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9074</t>
+          <t>0.9528</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1241,32 +1466,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162411</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)人民币A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.80</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9074</t>
+          <t>0.9528</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1279,36 +1504,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162411</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>华宝油气(QDII)人民币A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>41.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5162</t>
+          <t>0.8763</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1317,36 +1542,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>001481</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>华宝油气(QDII)美元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>41.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5162</t>
+          <t>0.8763</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1365,26 +1590,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.98</t>
+          <t>15.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2959</t>
+          <t>0.3242</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1393,36 +1618,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1656</t>
+          <t>0.3112</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1431,36 +1656,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1656</t>
+          <t>0.3112</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1469,6 +1694,328 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5162</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5162</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1676,7 +2223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1960,7 +2507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2206,7 +2753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2564,212 +3111,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1634</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1634</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0868</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0868</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>